--- a/csvfiles/csv1.xlsx
+++ b/csvfiles/csv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\internship\security-tool\csvfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1903C079-67F4-4AC0-881A-900695C0DF0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C3E8B-F81E-45D8-9C6F-E8824D6974A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{AC6C40AB-44FD-48D5-AC6F-84285FE53E62}"/>
   </bookViews>
